--- a/docs/StructureDefinition-VAPatient.xlsx
+++ b/docs/StructureDefinition-VAPatient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$167</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="860">
   <si>
     <t>Path</t>
   </si>
@@ -628,6 +628,196 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>patient-remarks</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-remarks}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>If so desired, you may enter a short remark about this applicant between 3-60 characters.  The remark entered should be significant and tact should be exercised since this field is viewable to virtually all other users who have the ability to 'call up' a patient for any purpose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient @remarks 2-.091</t>
+  </si>
+  <si>
+    <t>patient-lastTransferTime</t>
+  </si>
+  <si>
+    <t>latest transaction date/time for transaction type=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-lastTransferTime}
+</t>
+  </si>
+  <si>
+    <t>Last Transfer Date/Time</t>
+  </si>
+  <si>
+    <t>This field contains the internal entry number of the PATIENT MOVEMENT file denoting the most recent movement for an inpatient. This field is only stored for current inpatients. It must NOT be edited as this could affect
+the integrity of many options within MAS and other packages. When displaying this field, the date/time of the most recent movement will display.</t>
+  </si>
+  <si>
+    <t>Patient Movement @latest transaction date/time for transaction type=2 405-.01a</t>
+  </si>
+  <si>
+    <t>us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/us-core-ethnicity}
+</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Patient's ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity Information @Ethnicity Information 2.06-.01</t>
+  </si>
+  <si>
+    <t>race-ethicity-collectionMethod</t>
+  </si>
+  <si>
+    <t>Method of Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/race-ethicity-collectionMethod}
+</t>
+  </si>
+  <si>
+    <t>Method used to collect patient's ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity Information @Method of Collection 2.06-.02</t>
+  </si>
+  <si>
+    <t>us-core-race</t>
+  </si>
+  <si>
+    <t>Race Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/us-core-race}
+</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Patient's race</t>
+  </si>
+  <si>
+    <t>Race Information @Race Information 2.02-01</t>
+  </si>
+  <si>
+    <t>patient-religion</t>
+  </si>
+  <si>
+    <t>Religious Preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-religion}
+</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Select from the available listing the religious preference of this applicant.</t>
+  </si>
+  <si>
+    <t>Patient @Religious Preference 2-.08</t>
+  </si>
+  <si>
+    <t>patient-lastDischargeDate</t>
+  </si>
+  <si>
+    <t>lastest  transaction date/time for transaction type=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-lastDischargeDate}
+</t>
+  </si>
+  <si>
+    <t>Last Discharge date/time</t>
+  </si>
+  <si>
+    <t>Enter in this field the date/time of the movement (admission, transfer, discharge, treating specialty transfer, lodger check-in, or lodger check- out).  Time must be included.</t>
+  </si>
+  <si>
+    <t>patient Movement  @lastest  transaction date/time for transaction type=3 405-.01b</t>
+  </si>
+  <si>
+    <t>emergencyResponseCohort</t>
+  </si>
+  <si>
+    <t>Emergency Response Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/emergencyResponseCohort}
+</t>
+  </si>
+  <si>
+    <t>Enter the appropriate ER Indicator to identify patients from impacted zip code areas designated by FEMA.</t>
+  </si>
+  <si>
+    <t>Patient File @Emergency Response Indicator  2-.181</t>
+  </si>
+  <si>
+    <t>defaultPrescriptionStatus</t>
+  </si>
+  <si>
+    <t>PATIENT STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/defaultPrescriptionStatus}
+</t>
+  </si>
+  <si>
+    <t>Rx Patient status</t>
+  </si>
+  <si>
+    <t>This field is used to indicate a default patient status.</t>
+  </si>
+  <si>
+    <t>Patient File @PATIENT STATUS 55-3</t>
+  </si>
+  <si>
+    <t>selfIdentifiedGender</t>
+  </si>
+  <si>
+    <t>SELF IDENTIFIED GENDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/selfIdentifiedGender}
+</t>
+  </si>
+  <si>
+    <t>This SELF IDENTIFIED GENDER value indicates the patient's view of their gender identity, if they choose to provide it.</t>
+  </si>
+  <si>
+    <t>PATIENT @SELF IDENTIFIED GENDER 2-.024</t>
+  </si>
+  <si>
     <t>us-core-birthsex</t>
   </si>
   <si>
@@ -644,197 +834,7 @@
     <t>Enter 'M' if this applicant is a male, or 'F' if female.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PATIENT FILE @SEX 2-.02</t>
-  </si>
-  <si>
-    <t>selfIdentifiedGender</t>
-  </si>
-  <si>
-    <t>SELF IDENTIFIED GENDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/selfIdentifiedGender}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This SELF IDENTIFIED GENDER value indicates the patient's view of their gender identity, if they choose to provide it.</t>
-  </si>
-  <si>
-    <t>PATIENT @SELF IDENTIFIED GENDER 2-.024</t>
-  </si>
-  <si>
-    <t>defaultPrescriptionStatus</t>
-  </si>
-  <si>
-    <t>PATIENT STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/defaultPrescriptionStatus}
-</t>
-  </si>
-  <si>
-    <t>Rx Patient status</t>
-  </si>
-  <si>
-    <t>This field is used to indicate a default patient status.</t>
-  </si>
-  <si>
-    <t>Patient File @PATIENT STATUS 55-3</t>
-  </si>
-  <si>
-    <t>emergencyResponseCohort</t>
-  </si>
-  <si>
-    <t>Emergency Response Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/emergencyResponseCohort}
-</t>
-  </si>
-  <si>
-    <t>Enter the appropriate ER Indicator to identify patients from impacted zip code areas designated by FEMA.</t>
-  </si>
-  <si>
-    <t>Patient File @Emergency Response Indicator  2-.181</t>
-  </si>
-  <si>
-    <t>patient-lastDischargeDate</t>
-  </si>
-  <si>
-    <t>lastest  transaction date/time for transaction type=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-lastDischargeDate}
-</t>
-  </si>
-  <si>
-    <t>Last Discharge date/time</t>
-  </si>
-  <si>
-    <t>Enter in this field the date/time of the movement (admission, transfer, discharge, treating specialty transfer, lodger check-in, or lodger check- out).  Time must be included.</t>
-  </si>
-  <si>
-    <t>patient Movement  @lastest  transaction date/time for transaction type=3 405-.01b</t>
-  </si>
-  <si>
-    <t>patient-religion</t>
-  </si>
-  <si>
-    <t>Religious Preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-religion}
-</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Select from the available listing the religious preference of this applicant.</t>
-  </si>
-  <si>
-    <t>Patient @Religious Preference 2-.08</t>
-  </si>
-  <si>
-    <t>us-core-race</t>
-  </si>
-  <si>
-    <t>Race Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/us-core-race}
-</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Patient's race</t>
-  </si>
-  <si>
-    <t>Race Information @Race Information 2.02-01</t>
-  </si>
-  <si>
-    <t>race-ethicity-collectionMethod</t>
-  </si>
-  <si>
-    <t>Method of Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/race-ethicity-collectionMethod}
-</t>
-  </si>
-  <si>
-    <t>Method used to collect patient's ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity Information @Method of Collection 2.06-.02</t>
-  </si>
-  <si>
-    <t>us-core-ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/us-core-ethnicity}
-</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Patient's ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity Information @Ethnicity Information 2.06-.01</t>
-  </si>
-  <si>
-    <t>patient-lastTransferTime</t>
-  </si>
-  <si>
-    <t>latest transaction date/time for transaction type=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-lastTransferTime}
-</t>
-  </si>
-  <si>
-    <t>Last Transfer Date/Time</t>
-  </si>
-  <si>
-    <t>This field contains the internal entry number of the PATIENT MOVEMENT file denoting the most recent movement for an inpatient. This field is only stored for current inpatients. It must NOT be edited as this could affect
-the integrity of many options within MAS and other packages. When displaying this field, the date/time of the most recent movement will display.</t>
-  </si>
-  <si>
-    <t>Patient Movement @latest transaction date/time for transaction type=2 405-.01a</t>
-  </si>
-  <si>
-    <t>patient-remarks</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-remarks}
-</t>
-  </si>
-  <si>
-    <t>If so desired, you may enter a short remark about this applicant between 3-60 characters.  The remark entered should be significant and tact should be exercised since this field is viewable to virtually all other users who have the ability to 'call up' a patient for any purpose.</t>
-  </si>
-  <si>
-    <t>Patient @remarks 2-.091</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1413,6 +1413,22 @@
     <t>Patient.address.extension</t>
   </si>
   <si>
+    <t>address-active</t>
+  </si>
+  <si>
+    <t>Temporary Address Active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/address-active}
+</t>
+  </si>
+  <si>
+    <t>Enter 'Y' if you wish to enter a temporary address for this applicant at this time, or 'N' if not.  A 'NO' response will cause the temporary address 'Start Date' and 'End Date' fields to be automatically deleted while all other temporary address data will remain on file for future use.</t>
+  </si>
+  <si>
+    <t>Patient File @Temporary Address Active?  2-.12105</t>
+  </si>
+  <si>
     <t>address-validity</t>
   </si>
   <si>
@@ -1432,22 +1448,6 @@
     <t>Patient File @BAD ADDRESS INDICATOR 2-.121</t>
   </si>
   <si>
-    <t>address-active</t>
-  </si>
-  <si>
-    <t>Temporary Address Active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/address-active}
-</t>
-  </si>
-  <si>
-    <t>Enter 'Y' if you wish to enter a temporary address for this applicant at this time, or 'N' if not.  A 'NO' response will cause the temporary address 'Start Date' and 'End Date' fields to be automatically deleted while all other temporary address data will remain on file for future use.</t>
-  </si>
-  <si>
-    <t>Patient File @Temporary Address Active?  2-.12105</t>
-  </si>
-  <si>
     <t>Patient.address.use</t>
   </si>
   <si>
@@ -1484,6 +1484,9 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
+    <t>postal</t>
+  </si>
+  <si>
     <t>both</t>
   </si>
   <si>
@@ -1529,10 +1532,13 @@
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+    <t>TEMPORARY STREET [LINE 3]</t>
+  </si>
+  <si>
+    <t>Temp Street Add 3</t>
+  </si>
+  <si>
+    <t>If the WANT TO ENTER A TEMPORARY ADDRESS prompt is answered YES enter the third line of the temporary street address [2-30 characters], if necessary, otherwise nothing may be entered. This field may not be deleted as long as the need for a temporary address is indicated.</t>
   </si>
   <si>
     <t>home | work | temp | old - purpose of this address.</t>
@@ -1542,6 +1548,9 @@
   </si>
   <si>
     <t>Address.line</t>
+  </si>
+  <si>
+    <t>Patient File @TEMPORARY STREET [LINE 3]  2-.1213</t>
   </si>
   <si>
     <t>AD.part[parttype = AL]</t>
@@ -1557,16 +1566,22 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, village or other community or delivery center.</t>
+    <t>TEMPORARY CITY</t>
+  </si>
+  <si>
+    <t>Temp City</t>
+  </si>
+  <si>
+    <t>If the WANT TO ENTER A TEMPORARY ADDRESS prompt is answered YES enter the city in which the temporary address lies [2-30 characters], otherwise nothing may be entered.  This field may not be deleted as long as the need for a temporary address is indicated.</t>
   </si>
   <si>
     <t>Erewhon</t>
   </si>
   <si>
     <t>Address.city</t>
+  </si>
+  <si>
+    <t>Patient File @TEMPORARY CITY  2-.1214</t>
   </si>
   <si>
     <t>AD.part[parttype = CTY]</t>
@@ -1582,10 +1597,13 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
+    <t>TEMPORARY COUNTY</t>
+  </si>
+  <si>
+    <t>Temp County</t>
+  </si>
+  <si>
+    <t>If a state is entered for the temporary residence, enter the county in which that residence resides.  If a state does not exist for the temporary address, a county can not be entered.</t>
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
@@ -1595,6 +1613,9 @@
   </si>
   <si>
     <t>Address.district</t>
+  </si>
+  <si>
+    <t>Patient File @TEMPORARY COUNTY 2-.12111</t>
   </si>
   <si>
     <t>AD.part[parttype = CNT | CPA]</t>
@@ -1610,13 +1631,19 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>From the available listing choose the state in which this applicant resides.</t>
   </si>
   <si>
     <t>Address.state</t>
+  </si>
+  <si>
+    <t>Patient File @STATE 2-.115</t>
   </si>
   <si>
     <t>AD.part[parttype = STA]</t>
@@ -1632,10 +1659,13 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>TEMPORARY ZIP+4</t>
+  </si>
+  <si>
+    <t>Temp zip Code</t>
+  </si>
+  <si>
+    <t>Answer with either the 5 digit format (e.g. 12345) or the nine digit format (e.g. 12345-6789 or 123456789).</t>
   </si>
   <si>
     <t>9132</t>
@@ -1644,6 +1674,9 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>Patient File @TEMPORARY ZIP+4 2-.12112</t>
+  </si>
+  <si>
     <t>AD.part[parttype = ZIP]</t>
   </si>
   <si>
@@ -1653,16 +1686,22 @@
     <t>Patient.address.country</t>
   </si>
   <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
+    <t>TEMPORARY ADDRESS COUNTRY</t>
+  </si>
+  <si>
+    <t>Temporary Country</t>
+  </si>
+  <si>
+    <t>Enter the country where the patient's temporary address is located.   If entering an Army/Air Force Post Office (APO) or a Fleet Post Office  (FPO) address select United States as the country.</t>
   </si>
   <si>
     <t>ISO 3166 3 letter codes can be used in place of a full country name.</t>
   </si>
   <si>
     <t>Address.country</t>
+  </si>
+  <si>
+    <t>Patient File @TEMPORARY ADDRESS COUNTRY 2-.1223</t>
   </si>
   <si>
     <t>AD.part[parttype = CNT]</t>
@@ -2010,18 +2049,75 @@
     <t>NK1-7, NK1-3</t>
   </si>
   <si>
+    <t>Patient.contact.relationship.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.system</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/v2/0131</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.version</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.display</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.text</t>
+  </si>
+  <si>
+    <t>K2 – Relationship to Patient</t>
+  </si>
+  <si>
+    <t>If a secondary next-of-kin is specified enter the relationship of that person to the applicant [1-30 characters].  This field cannot be deleted as long as a secondary NOK is on file.</t>
+  </si>
+  <si>
+    <t>Patient @K2 – Relationship to Patient  2-.2192</t>
+  </si>
+  <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t>A name associated with the contact person</t>
-  </si>
-  <si>
-    <t>A name associated with the contact person.</t>
+    <t>K2 – Name of Secondary NOK</t>
+  </si>
+  <si>
+    <t>Enter the secondary next of kin's name in 'LAST,FIRST MIDDLE SUFFIX' format. This value must be 3-35 characters in length and may contain only uppercase alpha characters, spaces, apostrophes, hyphens and one comma.  All other characters and parenthetical text will be removed.</t>
   </si>
   <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
+    <t>Patient @K2 – Name of Secondary NOK  2-.2191</t>
+  </si>
+  <si>
     <t>NK1-2</t>
   </si>
   <si>
@@ -2040,6 +2136,36 @@
     <t>NK1-5, NK1-6, NK1-40</t>
   </si>
   <si>
+    <t>Patient.contact.telecom.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom.system</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom.value</t>
+  </si>
+  <si>
+    <t>K2 – Work Phone Number</t>
+  </si>
+  <si>
+    <t>If the person designated as secondary next of kin for this patient is employed, enter the phone number that individual can be reached at while at work.</t>
+  </si>
+  <si>
+    <t>Patient @K2 – Work Phone Number  2-.211011</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom.use</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom.rank</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom.period</t>
+  </si>
+  <si>
     <t>Patient.contact.address</t>
   </si>
   <si>
@@ -2053,6 +2179,90 @@
   </si>
   <si>
     <t>NK1-4</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.use</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.type</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.text</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.line</t>
+  </si>
+  <si>
+    <t>K2 – Street Address [Line 3]</t>
+  </si>
+  <si>
+    <t>If a secondary NOK is specified enter the third line of that person's street address [3-30 characters], if necessary, otherwise nothing may be entered.  This field cannot be deleted as long as a secondary NOK is on file.</t>
+  </si>
+  <si>
+    <t>Patient @K2 – Street Address [Line 3]  2-.2195</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.city</t>
+  </si>
+  <si>
+    <t>K2 – City</t>
+  </si>
+  <si>
+    <t>If a secondary NOK is specified enter the city in which that person resides [3-30 characters], otherwise nothing may be entered.  This field cannot be deleted as long as a secondary NOK is on file.</t>
+  </si>
+  <si>
+    <t>Patient @K2 – City  2-.2196</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.district</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.state</t>
+  </si>
+  <si>
+    <t>K2 – State</t>
+  </si>
+  <si>
+    <t>If a secondary NOK is specified select from the available listing the state in which that person resides, otherwise nothing may be entered.  This field cannot be deleted as long as a secondary NOK is on file.</t>
+  </si>
+  <si>
+    <t>Patient @K2 – State 2-.2197</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.postalCode</t>
+  </si>
+  <si>
+    <t>K2 – Zip Code</t>
+  </si>
+  <si>
+    <t>If a secondary NOK is specified enter the zip code for the city in which that person resides [5 numerics], otherwise nothing may be entered.  This field cannot be deleted as long as a secondary NOK is on file.</t>
+  </si>
+  <si>
+    <t>Patient @K2 – Zip Code 2-.2198</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>Patient.contact.address.period</t>
   </si>
   <si>
     <t>Patient.contact.gender</t>
@@ -2611,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO137"/>
+  <dimension ref="A1:AO167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5864,7 +6074,7 @@
         <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>220</v>
@@ -6340,7 +6550,7 @@
         <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>243</v>
@@ -6578,10 +6788,10 @@
         <v>253</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6647,7 +6857,7 @@
         <v>203</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>115</v>
@@ -6670,13 +6880,13 @@
         <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="E35" t="s" s="2">
         <v>43</v>
@@ -6694,10 +6904,10 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>260</v>
@@ -9143,7 +9353,7 @@
         <v>45</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s" s="2">
         <v>43</v>
@@ -9167,7 +9377,7 @@
         <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>403</v>
@@ -9999,10 +10209,10 @@
         <v>451</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -10068,7 +10278,7 @@
         <v>45</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>115</v>
@@ -10091,13 +10301,13 @@
         <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>43</v>
@@ -10115,10 +10325,10 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>458</v>
@@ -10205,7 +10415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>460</v>
       </c>
@@ -10221,7 +10431,7 @@
         <v>53</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>54</v>
@@ -10249,7 +10459,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>45</v>
@@ -10324,7 +10534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>469</v>
       </c>
@@ -10340,7 +10550,7 @@
         <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>45</v>
@@ -10364,13 +10574,13 @@
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>45</v>
@@ -10385,10 +10595,10 @@
         <v>281</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -10406,7 +10616,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10433,7 +10643,7 @@
         <v>45</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -10441,7 +10651,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10467,16 +10677,16 @@
         <v>66</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10489,7 +10699,7 @@
         <v>45</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>45</v>
@@ -10525,7 +10735,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10543,7 +10753,7 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
@@ -10552,21 +10762,23 @@
         <v>45</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
@@ -10574,7 +10786,7 @@
         <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>45</v>
@@ -10586,14 +10798,14 @@
         <v>66</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -10606,7 +10818,7 @@
         <v>45</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>45</v>
@@ -10642,7 +10854,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10657,10 +10869,10 @@
         <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>45</v>
@@ -10669,21 +10881,23 @@
         <v>45</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
@@ -10691,7 +10905,7 @@
         <v>53</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>45</v>
@@ -10703,10 +10917,10 @@
         <v>66</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10721,7 +10935,7 @@
         <v>45</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>45</v>
@@ -10757,7 +10971,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10772,10 +10986,10 @@
         <v>45</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>45</v>
@@ -10784,21 +10998,23 @@
         <v>45</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
@@ -10806,7 +11022,7 @@
         <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>45</v>
@@ -10818,13 +11034,13 @@
         <v>66</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10838,7 +11054,7 @@
         <v>45</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>45</v>
@@ -10874,7 +11090,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10889,10 +11105,10 @@
         <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>45</v>
@@ -10901,21 +11117,23 @@
         <v>45</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="E71" t="s" s="2">
         <v>43</v>
       </c>
@@ -10923,7 +11141,7 @@
         <v>53</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>45</v>
@@ -10935,10 +11153,10 @@
         <v>66</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10989,7 +11207,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -11004,10 +11222,10 @@
         <v>45</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>45</v>
+        <v>524</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>45</v>
@@ -11016,21 +11234,23 @@
         <v>45</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
@@ -11038,7 +11258,7 @@
         <v>53</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>45</v>
@@ -11050,10 +11270,10 @@
         <v>66</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11068,7 +11288,7 @@
         <v>45</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>45</v>
@@ -11104,7 +11324,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -11119,10 +11339,10 @@
         <v>45</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>45</v>
@@ -11131,21 +11351,23 @@
         <v>45</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="E73" t="s" s="2">
         <v>43</v>
       </c>
@@ -11153,7 +11375,7 @@
         <v>53</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>45</v>
@@ -11165,13 +11387,13 @@
         <v>66</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -11221,7 +11443,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -11236,10 +11458,10 @@
         <v>45</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>45</v>
+        <v>543</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>45</v>
@@ -11248,7 +11470,7 @@
         <v>45</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -11256,7 +11478,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11282,14 +11504,14 @@
         <v>316</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -11302,7 +11524,7 @@
         <v>45</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>45</v>
@@ -11338,7 +11560,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -11365,7 +11587,7 @@
         <v>45</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>45</v>
@@ -11373,7 +11595,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11488,7 +11710,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11605,14 +11827,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E77" t="s" s="2">
         <v>43</v>
@@ -11633,13 +11855,13 @@
         <v>424</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11689,7 +11911,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11698,16 +11920,16 @@
         <v>53</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>45</v>
@@ -11716,7 +11938,7 @@
         <v>45</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>45</v>
@@ -11724,14 +11946,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E78" t="s" s="2">
         <v>43</v>
@@ -11752,20 +11974,20 @@
         <v>424</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>45</v>
@@ -11810,7 +12032,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11819,16 +12041,16 @@
         <v>53</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>45</v>
@@ -11837,7 +12059,7 @@
         <v>45</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>45</v>
@@ -11845,7 +12067,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11871,14 +12093,14 @@
         <v>287</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11906,10 +12128,10 @@
         <v>103</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>45</v>
@@ -11927,7 +12149,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11945,16 +12167,16 @@
         <v>45</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>45</v>
@@ -11962,7 +12184,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12077,7 +12299,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12194,7 +12416,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12220,16 +12442,16 @@
         <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -12278,7 +12500,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -12296,7 +12518,7 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>45</v>
@@ -12305,7 +12527,7 @@
         <v>45</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>45</v>
@@ -12313,7 +12535,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12428,7 +12650,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12545,7 +12767,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12664,7 +12886,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12781,14 +13003,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E87" t="s" s="2">
         <v>43</v>
@@ -12809,10 +13031,10 @@
         <v>134</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -12880,7 +13102,7 @@
         <v>45</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>139</v>
@@ -12900,7 +13122,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13017,7 +13239,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13136,7 +13358,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13162,16 +13384,16 @@
         <v>66</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -13220,7 +13442,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -13238,7 +13460,7 @@
         <v>45</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>45</v>
@@ -13247,7 +13469,7 @@
         <v>45</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>45</v>
@@ -13255,7 +13477,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13278,19 +13500,19 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -13339,7 +13561,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13357,7 +13579,7 @@
         <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>70</v>
@@ -13366,7 +13588,7 @@
         <v>45</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>45</v>
@@ -13374,14 +13596,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E92" t="s" s="2">
         <v>43</v>
@@ -13399,17 +13621,17 @@
         <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -13458,7 +13680,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13473,10 +13695,10 @@
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>70</v>
@@ -13485,7 +13707,7 @@
         <v>45</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>45</v>
@@ -13493,7 +13715,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13516,19 +13738,19 @@
         <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -13577,7 +13799,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13589,13 +13811,13 @@
         <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>70</v>
@@ -13612,7 +13834,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13727,7 +13949,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13840,16 +14062,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="E96" t="s" s="2">
         <v>43</v>
@@ -13867,13 +14089,13 @@
         <v>45</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13939,7 +14161,7 @@
         <v>203</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>115</v>
@@ -13959,11 +14181,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13988,7 +14210,7 @@
         <v>263</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>76</v>
@@ -14041,7 +14263,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14076,7 +14298,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14102,14 +14324,14 @@
         <v>287</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -14137,10 +14359,10 @@
         <v>103</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -14158,7 +14380,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14176,7 +14398,7 @@
         <v>45</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>70</v>
@@ -14185,7 +14407,7 @@
         <v>45</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>45</v>
@@ -14193,7 +14415,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14216,18 +14438,16 @@
         <v>45</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>643</v>
+        <v>67</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>644</v>
+        <v>68</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>645</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -14275,7 +14495,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>642</v>
+        <v>69</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -14293,16 +14513,16 @@
         <v>45</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>45</v>
@@ -14310,11 +14530,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -14333,20 +14553,18 @@
         <v>45</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>648</v>
+        <v>74</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>649</v>
+        <v>75</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>45</v>
       </c>
@@ -14382,19 +14600,19 @@
         <v>45</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>647</v>
+        <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -14412,16 +14630,16 @@
         <v>45</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>355</v>
+        <v>70</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>651</v>
+        <v>45</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>45</v>
@@ -14429,7 +14647,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14440,7 +14658,7 @@
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>45</v>
@@ -14449,20 +14667,22 @@
         <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>439</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="N101" t="s" s="2">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14511,13 +14731,13 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>652</v>
+        <v>589</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
@@ -14529,16 +14749,16 @@
         <v>45</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>444</v>
+        <v>590</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>656</v>
+        <v>591</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>45</v>
@@ -14546,7 +14766,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14569,18 +14789,16 @@
         <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>402</v>
+        <v>67</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>658</v>
+        <v>68</v>
       </c>
       <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>659</v>
-      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14604,13 +14822,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14628,7 +14846,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>657</v>
+        <v>69</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14646,40 +14864,38 @@
         <v>45</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>408</v>
+        <v>70</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>660</v>
+        <v>45</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>45</v>
@@ -14688,18 +14904,18 @@
         <v>45</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>663</v>
+        <v>74</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -14735,54 +14951,54 @@
         <v>45</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>661</v>
+        <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>666</v>
+        <v>45</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>667</v>
+        <v>45</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>668</v>
+        <v>70</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>669</v>
+        <v>45</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14796,31 +15012,35 @@
         <v>53</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>671</v>
+        <v>117</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>45</v>
+        <v>661</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>45</v>
@@ -14862,7 +15082,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>670</v>
+        <v>122</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14880,16 +15100,16 @@
         <v>45</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>673</v>
+        <v>123</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>45</v>
@@ -14897,7 +15117,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14914,26 +15134,24 @@
         <v>45</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>616</v>
+        <v>66</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>675</v>
+        <v>126</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>676</v>
+        <v>127</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -14981,7 +15199,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>674</v>
+        <v>129</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14993,30 +15211,30 @@
         <v>45</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>680</v>
+        <v>130</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15030,31 +15248,33 @@
         <v>53</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>67</v>
+        <v>664</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>68</v>
+        <v>665</v>
       </c>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>45</v>
+        <v>666</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -15096,7 +15316,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -15114,7 +15334,7 @@
         <v>45</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>45</v>
@@ -15123,7 +15343,7 @@
         <v>45</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>45</v>
@@ -15131,18 +15351,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
@@ -15151,21 +15371,21 @@
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -15213,13 +15433,13 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
@@ -15231,7 +15451,7 @@
         <v>45</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>45</v>
@@ -15240,7 +15460,7 @@
         <v>45</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>45</v>
@@ -15248,41 +15468,43 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>631</v>
+        <v>45</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>632</v>
+        <v>151</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -15330,13 +15552,13 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>633</v>
+        <v>154</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>45</v>
@@ -15348,7 +15570,7 @@
         <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>45</v>
@@ -15357,29 +15579,31 @@
         <v>45</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="E109" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>45</v>
@@ -15388,19 +15612,19 @@
         <v>54</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>687</v>
+        <v>606</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>688</v>
+        <v>607</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -15425,13 +15649,13 @@
         <v>45</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>689</v>
+        <v>45</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>690</v>
+        <v>45</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>45</v>
@@ -15449,10 +15673,10 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>684</v>
+        <v>608</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>53</v>
@@ -15464,33 +15688,35 @@
         <v>45</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>45</v>
+        <v>672</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>691</v>
+        <v>610</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="E110" t="s" s="2">
         <v>43</v>
       </c>
@@ -15498,28 +15724,26 @@
         <v>53</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>695</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15544,13 +15768,13 @@
         <v>45</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>697</v>
+        <v>45</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>698</v>
+        <v>45</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>45</v>
@@ -15568,7 +15792,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15583,10 +15807,10 @@
         <v>45</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>45</v>
+        <v>677</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>699</v>
+        <v>346</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>70</v>
@@ -15595,7 +15819,7 @@
         <v>45</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>45</v>
@@ -15603,7 +15827,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15614,7 +15838,7 @@
         <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>45</v>
@@ -15623,20 +15847,22 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="N111" t="s" s="2">
-        <v>704</v>
+        <v>354</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -15661,13 +15887,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>705</v>
+        <v>45</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>706</v>
+        <v>45</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -15685,13 +15911,13 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>45</v>
@@ -15703,7 +15929,7 @@
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>707</v>
+        <v>355</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>70</v>
@@ -15712,7 +15938,7 @@
         <v>45</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>115</v>
+        <v>683</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>45</v>
@@ -15720,7 +15946,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15731,7 +15957,7 @@
         <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>45</v>
@@ -15743,20 +15969,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>616</v>
+        <v>66</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>709</v>
+        <v>67</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -15804,28 +16026,28 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>708</v>
+        <v>69</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>713</v>
+        <v>70</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>714</v>
+        <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>45</v>
@@ -15839,18 +16061,18 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -15862,15 +16084,17 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M113" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15907,25 +16131,25 @@
         <v>45</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -15952,9 +16176,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15965,25 +16189,25 @@
         <v>43</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>195</v>
+        <v>362</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15992,7 +16216,7 @@
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>45</v>
@@ -16010,38 +16234,40 @@
         <v>45</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>45</v>
@@ -16050,7 +16276,7 @@
         <v>45</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>45</v>
@@ -16059,7 +16285,7 @@
         <v>45</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>45</v>
@@ -16067,22 +16293,20 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>717</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="E115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>54</v>
@@ -16091,19 +16315,23 @@
         <v>45</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>719</v>
+        <v>66</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
       </c>
@@ -16151,25 +16379,25 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>115</v>
+        <v>377</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>45</v>
@@ -16178,29 +16406,29 @@
         <v>45</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>631</v>
+        <v>45</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>54</v>
@@ -16209,24 +16437,26 @@
         <v>54</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>263</v>
+        <v>380</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>632</v>
+        <v>381</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>45</v>
@@ -16244,13 +16474,13 @@
         <v>45</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>45</v>
@@ -16268,13 +16498,13 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>633</v>
+        <v>387</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>45</v>
@@ -16286,7 +16516,7 @@
         <v>45</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>115</v>
+        <v>388</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>45</v>
@@ -16295,7 +16525,7 @@
         <v>45</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>45</v>
@@ -16303,7 +16533,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16311,7 +16541,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>53</v>
@@ -16323,23 +16553,21 @@
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>724</v>
+        <v>392</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>725</v>
+        <v>393</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>727</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -16363,13 +16591,13 @@
         <v>45</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>45</v>
@@ -16387,10 +16615,10 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>723</v>
+        <v>395</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>53</v>
@@ -16405,16 +16633,16 @@
         <v>45</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>728</v>
+        <v>70</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>729</v>
+        <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>730</v>
+        <v>70</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>45</v>
@@ -16422,7 +16650,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>731</v>
+        <v>693</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16442,16 +16670,16 @@
         <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>68</v>
+        <v>398</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16502,7 +16730,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>69</v>
+        <v>399</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16520,7 +16748,7 @@
         <v>45</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>45</v>
@@ -16529,7 +16757,7 @@
         <v>45</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>45</v>
@@ -16537,18 +16765,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>45</v>
@@ -16560,18 +16788,18 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>73</v>
+        <v>439</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>74</v>
+        <v>695</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>697</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
@@ -16607,25 +16835,25 @@
         <v>45</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>80</v>
+        <v>694</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>45</v>
@@ -16637,16 +16865,16 @@
         <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="AL119" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AM119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>45</v>
+        <v>698</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>45</v>
@@ -16654,7 +16882,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16665,7 +16893,7 @@
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
@@ -16674,23 +16902,19 @@
         <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>572</v>
+        <v>67</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
@@ -16738,13 +16962,13 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>576</v>
+        <v>69</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
@@ -16756,7 +16980,7 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>577</v>
+        <v>70</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>45</v>
@@ -16765,7 +16989,7 @@
         <v>45</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>45</v>
@@ -16773,18 +16997,18 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>45</v>
@@ -16796,15 +17020,17 @@
         <v>45</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16841,25 +17067,25 @@
         <v>45</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>45</v>
@@ -16888,41 +17114,43 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>75</v>
+        <v>462</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
       </c>
@@ -16934,7 +17162,7 @@
         <v>45</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>45</v>
@@ -16946,37 +17174,37 @@
         <v>45</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>45</v>
@@ -16988,7 +17216,7 @@
         <v>45</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>45</v>
@@ -16997,15 +17225,15 @@
         <v>45</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17019,7 +17247,7 @@
         <v>53</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>45</v>
@@ -17028,32 +17256,28 @@
         <v>54</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>117</v>
+        <v>470</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>737</v>
+        <v>45</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="S123" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>45</v>
@@ -17065,13 +17289,13 @@
         <v>45</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>45</v>
@@ -17089,7 +17313,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -17107,7 +17331,7 @@
         <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>123</v>
+        <v>388</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>45</v>
@@ -17116,7 +17340,7 @@
         <v>45</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>124</v>
+        <v>477</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>45</v>
@@ -17124,7 +17348,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17150,15 +17374,17 @@
         <v>66</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>126</v>
+        <v>479</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>127</v>
+        <v>480</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -17170,7 +17396,7 @@
         <v>45</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>45</v>
@@ -17206,7 +17432,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>129</v>
+        <v>484</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -17224,7 +17450,7 @@
         <v>45</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>130</v>
+        <v>485</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>45</v>
@@ -17233,7 +17459,7 @@
         <v>45</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>131</v>
+        <v>486</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>45</v>
@@ -17241,20 +17467,20 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="E125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>54</v>
@@ -17266,17 +17492,17 @@
         <v>54</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>45</v>
@@ -17289,7 +17515,7 @@
         <v>45</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>45</v>
@@ -17325,13 +17551,13 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>137</v>
+        <v>493</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>45</v>
@@ -17340,10 +17566,10 @@
         <v>45</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>139</v>
+        <v>495</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>45</v>
@@ -17352,21 +17578,23 @@
         <v>45</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>140</v>
+        <v>496</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="E126" t="s" s="2">
         <v>43</v>
       </c>
@@ -17374,7 +17602,7 @@
         <v>53</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>45</v>
@@ -17386,15 +17614,13 @@
         <v>66</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>142</v>
+        <v>709</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>143</v>
+        <v>710</v>
       </c>
       <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>45</v>
       </c>
@@ -17406,7 +17632,7 @@
         <v>45</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>45</v>
+        <v>502</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>45</v>
@@ -17442,7 +17668,7 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>145</v>
+        <v>503</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
@@ -17457,10 +17683,10 @@
         <v>45</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>45</v>
+        <v>711</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>146</v>
+        <v>505</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>45</v>
@@ -17469,7 +17695,7 @@
         <v>45</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>147</v>
+        <v>506</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>45</v>
@@ -17477,11 +17703,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>45</v>
+        <v>508</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17500,20 +17726,18 @@
         <v>54</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>150</v>
+        <v>713</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>151</v>
+        <v>714</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>45</v>
       </c>
@@ -17525,7 +17749,7 @@
         <v>45</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>45</v>
@@ -17561,7 +17785,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>154</v>
+        <v>514</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17579,7 +17803,7 @@
         <v>45</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>155</v>
+        <v>516</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>45</v>
@@ -17588,21 +17812,23 @@
         <v>45</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>156</v>
+        <v>517</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="E128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17610,7 +17836,7 @@
         <v>53</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>45</v>
@@ -17622,17 +17848,13 @@
         <v>66</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>591</v>
+        <v>716</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
@@ -17680,7 +17902,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>595</v>
+        <v>523</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17695,10 +17917,10 @@
         <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>45</v>
+        <v>718</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>45</v>
@@ -17707,21 +17929,23 @@
         <v>45</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>720</v>
+      </c>
       <c r="E129" t="s" s="2">
         <v>43</v>
       </c>
@@ -17729,29 +17953,25 @@
         <v>53</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>750</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>45</v>
       </c>
@@ -17763,7 +17983,7 @@
         <v>45</v>
       </c>
       <c r="S129" t="s" s="2">
-        <v>45</v>
+        <v>532</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>45</v>
@@ -17799,7 +18019,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>746</v>
+        <v>533</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -17814,61 +18034,59 @@
         <v>45</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>45</v>
+        <v>722</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>751</v>
+        <v>535</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>752</v>
+        <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>753</v>
+        <v>536</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="D130" t="s" s="2">
-        <v>756</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J130" t="s" s="2">
-        <v>757</v>
+        <v>66</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>760</v>
+        <v>541</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17918,13 +18136,13 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>754</v>
+        <v>542</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>45</v>
@@ -17933,19 +18151,19 @@
         <v>45</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>761</v>
+        <v>45</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>762</v>
+        <v>544</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>763</v>
+        <v>545</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>45</v>
@@ -17953,7 +18171,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>764</v>
+        <v>726</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17976,19 +18194,17 @@
         <v>54</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>765</v>
+        <v>547</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>768</v>
+        <v>549</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
@@ -18001,7 +18217,7 @@
         <v>45</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>45</v>
@@ -18037,7 +18253,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>764</v>
+        <v>551</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -18055,16 +18271,16 @@
         <v>45</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>668</v>
+        <v>400</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>769</v>
+        <v>45</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>45</v>
+        <v>552</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>45</v>
@@ -18072,7 +18288,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>770</v>
+        <v>727</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18083,31 +18299,29 @@
         <v>43</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>616</v>
+        <v>134</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>771</v>
+        <v>402</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>773</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>774</v>
+        <v>729</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
@@ -18132,13 +18346,13 @@
         <v>45</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>45</v>
@@ -18156,25 +18370,25 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>770</v>
+        <v>727</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>775</v>
+        <v>408</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>70</v>
@@ -18183,21 +18397,23 @@
         <v>45</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>45</v>
+        <v>730</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
-        <v>776</v>
+        <v>731</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>732</v>
+      </c>
       <c r="E133" t="s" s="2">
         <v>43</v>
       </c>
@@ -18205,7 +18421,7 @@
         <v>53</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>45</v>
@@ -18214,16 +18430,18 @@
         <v>45</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>67</v>
+        <v>733</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>68</v>
+        <v>734</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
       </c>
@@ -18271,7 +18489,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>69</v>
+        <v>731</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -18280,25 +18498,25 @@
         <v>53</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>45</v>
+        <v>736</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>45</v>
+        <v>737</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="AL133" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AM133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>45</v>
@@ -18306,18 +18524,18 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>777</v>
+        <v>740</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>45</v>
@@ -18329,17 +18547,15 @@
         <v>45</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>74</v>
+        <v>741</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -18388,13 +18604,13 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>45</v>
@@ -18406,10 +18622,10 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>45</v>
@@ -18423,18 +18639,18 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>631</v>
+        <v>45</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>45</v>
@@ -18446,18 +18662,20 @@
         <v>54</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>73</v>
+        <v>629</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>263</v>
+        <v>745</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>632</v>
+        <v>746</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>748</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
       </c>
@@ -18505,28 +18723,28 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>45</v>
+        <v>749</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>115</v>
+        <v>750</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>45</v>
@@ -18540,7 +18758,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18548,7 +18766,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>53</v>
@@ -18560,20 +18778,18 @@
         <v>45</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>780</v>
+        <v>66</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>781</v>
+        <v>67</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>783</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>45</v>
@@ -18622,10 +18838,10 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>779</v>
+        <v>69</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>53</v>
@@ -18640,16 +18856,16 @@
         <v>45</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>784</v>
+        <v>45</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>45</v>
@@ -18657,18 +18873,18 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>785</v>
+        <v>752</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>45</v>
@@ -18677,18 +18893,20 @@
         <v>45</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>786</v>
+        <v>74</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18713,65 +18931,3589 @@
         <v>45</v>
       </c>
       <c r="W137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB144" s="2"/>
+      <c r="AC144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO148" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO151" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO152" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AO153" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AO154" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AO156" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AO157" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN158" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AO158" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AO159" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="E160" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AO160" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P161" s="2"/>
+      <c r="Q161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO161" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO162" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO163" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO164" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO165" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="N166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AO166" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W167" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="X137" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="AF137" t="s" s="2">
+      <c r="X167" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AF167" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="AG137" t="s" s="2">
+      <c r="AG167" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="AH137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="AL137" t="s" s="2">
+      <c r="AH167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AL167" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="AM137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO137" t="s" s="2">
+      <c r="AM167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO167" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO137">
+  <autoFilter ref="A1:AO167">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18781,7 +22523,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI136">
+  <conditionalFormatting sqref="A2:AI166">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAPatient.xlsx
+++ b/docs/StructureDefinition-VAPatient.xlsx
@@ -767,13 +767,13 @@
     <t>patient Movement  @lastest  transaction date/time for transaction type=3 405-.01b</t>
   </si>
   <si>
-    <t>emergencyResponseCohort</t>
+    <t>patient-emergencyResponseCohort</t>
   </si>
   <si>
     <t>Emergency Response Indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/emergencyResponseCohort}
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-emergencyResponseCohort}
 </t>
   </si>
   <si>
@@ -783,13 +783,13 @@
     <t>Patient File @Emergency Response Indicator  2-.181</t>
   </si>
   <si>
-    <t>defaultPrescriptionStatus</t>
+    <t>patient-defaultPrescriptionStatus</t>
   </si>
   <si>
     <t>PATIENT STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/defaultPrescriptionStatus}
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-defaultPrescriptionStatus}
 </t>
   </si>
   <si>
@@ -802,13 +802,13 @@
     <t>Patient File @PATIENT STATUS 55-3</t>
   </si>
   <si>
-    <t>selfIdentifiedGender</t>
+    <t>patient-genderIdentity</t>
   </si>
   <si>
     <t>SELF IDENTIFIED GENDER</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/selfIdentifiedGender}
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/patient-genderIdentity}
 </t>
   </si>
   <si>
@@ -2831,7 +2831,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="50.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="49.57421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VAPatient.xlsx
+++ b/docs/StructureDefinition-VAPatient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="861">
   <si>
     <t>Path</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>Patient.maritalStatus.coding.system</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/v3/MaritalStatus</t>
   </si>
   <si>
     <t>Patient.maritalStatus.coding.version</t>
@@ -12765,7 +12768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>594</v>
       </c>
@@ -12781,7 +12784,7 @@
         <v>53</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>45</v>
@@ -12809,7 +12812,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>45</v>
+        <v>595</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>45</v>
@@ -12886,7 +12889,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13003,14 +13006,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E87" t="s" s="2">
         <v>43</v>
@@ -13031,10 +13034,10 @@
         <v>134</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -13102,7 +13105,7 @@
         <v>45</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>139</v>
@@ -13122,7 +13125,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13239,7 +13242,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13358,7 +13361,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13384,16 +13387,16 @@
         <v>66</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -13442,7 +13445,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -13460,7 +13463,7 @@
         <v>45</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>45</v>
@@ -13469,7 +13472,7 @@
         <v>45</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>45</v>
@@ -13477,7 +13480,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13500,19 +13503,19 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -13561,7 +13564,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13579,7 +13582,7 @@
         <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>70</v>
@@ -13588,7 +13591,7 @@
         <v>45</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>45</v>
@@ -13596,14 +13599,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E92" t="s" s="2">
         <v>43</v>
@@ -13621,17 +13624,17 @@
         <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -13680,7 +13683,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13695,10 +13698,10 @@
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>70</v>
@@ -13707,7 +13710,7 @@
         <v>45</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>45</v>
@@ -13715,7 +13718,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13738,19 +13741,19 @@
         <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -13799,7 +13802,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13811,13 +13814,13 @@
         <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>70</v>
@@ -13834,7 +13837,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13949,7 +13952,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14062,16 +14065,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E96" t="s" s="2">
         <v>43</v>
@@ -14089,13 +14092,13 @@
         <v>45</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>200</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -14161,7 +14164,7 @@
         <v>203</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>115</v>
@@ -14181,11 +14184,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -14210,7 +14213,7 @@
         <v>263</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>76</v>
@@ -14263,7 +14266,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14298,7 +14301,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14324,14 +14327,14 @@
         <v>287</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -14359,10 +14362,10 @@
         <v>103</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -14380,7 +14383,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14398,7 +14401,7 @@
         <v>45</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>70</v>
@@ -14407,7 +14410,7 @@
         <v>45</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>45</v>
@@ -14415,7 +14418,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14530,7 +14533,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14647,7 +14650,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14766,7 +14769,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14881,7 +14884,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14998,7 +15001,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15040,7 +15043,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>45</v>
@@ -15117,7 +15120,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15234,7 +15237,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15260,10 +15263,10 @@
         <v>134</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
@@ -15274,7 +15277,7 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -15351,7 +15354,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15468,7 +15471,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15587,14 +15590,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E109" t="s" s="2">
         <v>43</v>
@@ -15615,16 +15618,16 @@
         <v>66</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -15673,7 +15676,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -15688,10 +15691,10 @@
         <v>45</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>45</v>
@@ -15700,7 +15703,7 @@
         <v>45</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>45</v>
@@ -15708,14 +15711,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E110" t="s" s="2">
         <v>43</v>
@@ -15736,14 +15739,14 @@
         <v>340</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15792,7 +15795,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15807,7 +15810,7 @@
         <v>45</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>346</v>
@@ -15819,7 +15822,7 @@
         <v>45</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>45</v>
@@ -15827,7 +15830,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15853,13 +15856,13 @@
         <v>350</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>354</v>
@@ -15911,7 +15914,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15938,7 +15941,7 @@
         <v>45</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>45</v>
@@ -15946,7 +15949,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16061,7 +16064,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16178,7 +16181,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16293,14 +16296,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E115" t="s" s="2">
         <v>43</v>
@@ -16321,10 +16324,10 @@
         <v>66</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>373</v>
@@ -16394,7 +16397,7 @@
         <v>45</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>377</v>
@@ -16414,7 +16417,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16533,7 +16536,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16650,7 +16653,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16765,7 +16768,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16791,14 +16794,14 @@
         <v>439</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -16847,7 +16850,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16874,7 +16877,7 @@
         <v>45</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>45</v>
@@ -16882,7 +16885,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16997,7 +17000,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17114,7 +17117,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17233,7 +17236,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17348,7 +17351,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17467,14 +17470,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E125" t="s" s="2">
         <v>43</v>
@@ -17495,10 +17498,10 @@
         <v>66</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
@@ -17566,7 +17569,7 @@
         <v>45</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>495</v>
@@ -17586,14 +17589,14 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
         <v>498</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E126" t="s" s="2">
         <v>43</v>
@@ -17614,10 +17617,10 @@
         <v>66</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -17683,7 +17686,7 @@
         <v>45</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>505</v>
@@ -17703,7 +17706,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17729,10 +17732,10 @@
         <v>66</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>512</v>
@@ -17820,14 +17823,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
         <v>519</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E128" t="s" s="2">
         <v>43</v>
@@ -17848,10 +17851,10 @@
         <v>66</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17917,7 +17920,7 @@
         <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>525</v>
@@ -17937,14 +17940,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
         <v>528</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E129" t="s" s="2">
         <v>43</v>
@@ -17965,10 +17968,10 @@
         <v>66</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -18034,7 +18037,7 @@
         <v>45</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>535</v>
@@ -18054,7 +18057,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18080,10 +18083,10 @@
         <v>66</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>541</v>
@@ -18171,7 +18174,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18288,7 +18291,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18317,11 +18320,11 @@
         <v>402</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
@@ -18370,7 +18373,7 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
@@ -18397,7 +18400,7 @@
         <v>45</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>45</v>
@@ -18405,14 +18408,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E133" t="s" s="2">
         <v>43</v>
@@ -18433,14 +18436,14 @@
         <v>323</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
@@ -18489,7 +18492,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -18498,16 +18501,16 @@
         <v>53</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>70</v>
@@ -18516,7 +18519,7 @@
         <v>45</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>45</v>
@@ -18524,7 +18527,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18550,10 +18553,10 @@
         <v>316</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -18604,7 +18607,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -18622,7 +18625,7 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>70</v>
@@ -18639,7 +18642,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18662,19 +18665,19 @@
         <v>54</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18723,7 +18726,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18735,13 +18738,13 @@
         <v>45</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>70</v>
@@ -18758,7 +18761,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18873,7 +18876,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18990,11 +18993,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19019,7 +19022,7 @@
         <v>263</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>76</v>
@@ -19072,7 +19075,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -19107,7 +19110,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19133,16 +19136,16 @@
         <v>287</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
@@ -19170,10 +19173,10 @@
         <v>161</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>45</v>
@@ -19191,7 +19194,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>53</v>
@@ -19209,7 +19212,7 @@
         <v>45</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>70</v>
@@ -19218,7 +19221,7 @@
         <v>45</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>45</v>
@@ -19226,7 +19229,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19252,16 +19255,16 @@
         <v>287</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>45</v>
@@ -19289,10 +19292,10 @@
         <v>161</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>45</v>
@@ -19310,7 +19313,7 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
@@ -19328,7 +19331,7 @@
         <v>45</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>70</v>
@@ -19337,7 +19340,7 @@
         <v>45</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>45</v>
@@ -19345,7 +19348,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19371,14 +19374,14 @@
         <v>287</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>45</v>
@@ -19406,10 +19409,10 @@
         <v>161</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>45</v>
@@ -19427,7 +19430,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -19445,7 +19448,7 @@
         <v>45</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>70</v>
@@ -19462,7 +19465,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19485,19 +19488,19 @@
         <v>45</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>45</v>
@@ -19546,7 +19549,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -19558,16 +19561,16 @@
         <v>45</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>45</v>
@@ -19581,7 +19584,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19696,7 +19699,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19809,16 +19812,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E145" t="s" s="2">
         <v>43</v>
@@ -19836,13 +19839,13 @@
         <v>45</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="K145" t="s" s="2">
-        <v>788</v>
-      </c>
       <c r="L145" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -19908,7 +19911,7 @@
         <v>203</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>115</v>
@@ -19928,11 +19931,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19957,7 +19960,7 @@
         <v>263</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>76</v>
@@ -20010,7 +20013,7 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -20045,7 +20048,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -20071,16 +20074,16 @@
         <v>287</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>45</v>
@@ -20129,7 +20132,7 @@
         <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>53</v>
@@ -20147,16 +20150,16 @@
         <v>45</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>45</v>
@@ -20164,7 +20167,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20279,7 +20282,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20396,7 +20399,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20515,7 +20518,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20630,7 +20633,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20747,7 +20750,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20789,7 +20792,7 @@
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="R153" t="s" s="2">
         <v>45</v>
@@ -20866,7 +20869,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20983,14 +20986,14 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E155" t="s" s="2">
         <v>43</v>
@@ -21011,10 +21014,10 @@
         <v>134</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
@@ -21082,7 +21085,7 @@
         <v>45</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>139</v>
@@ -21102,7 +21105,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21219,7 +21222,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21338,7 +21341,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21364,16 +21367,16 @@
         <v>66</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>45</v>
@@ -21422,7 +21425,7 @@
         <v>45</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>43</v>
@@ -21440,7 +21443,7 @@
         <v>45</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>45</v>
@@ -21449,7 +21452,7 @@
         <v>45</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>45</v>
@@ -21457,7 +21460,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21483,16 +21486,16 @@
         <v>149</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>45</v>
@@ -21541,7 +21544,7 @@
         <v>45</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>43</v>
@@ -21559,16 +21562,16 @@
         <v>45</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>45</v>
@@ -21576,14 +21579,14 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E160" t="s" s="2">
         <v>43</v>
@@ -21601,16 +21604,16 @@
         <v>45</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21660,7 +21663,7 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
@@ -21675,10 +21678,10 @@
         <v>45</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>70</v>
@@ -21687,7 +21690,7 @@
         <v>45</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>45</v>
@@ -21695,7 +21698,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21721,16 +21724,16 @@
         <v>323</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>45</v>
@@ -21779,7 +21782,7 @@
         <v>45</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>43</v>
@@ -21797,10 +21800,10 @@
         <v>45</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>45</v>
@@ -21814,7 +21817,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21837,19 +21840,19 @@
         <v>54</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>45</v>
@@ -21898,7 +21901,7 @@
         <v>45</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>43</v>
@@ -21910,13 +21913,13 @@
         <v>45</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>70</v>
@@ -21933,7 +21936,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22048,7 +22051,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22165,11 +22168,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22194,7 +22197,7 @@
         <v>263</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>76</v>
@@ -22247,7 +22250,7 @@
         <v>45</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>43</v>
@@ -22282,7 +22285,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22305,16 +22308,16 @@
         <v>54</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
@@ -22364,7 +22367,7 @@
         <v>45</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>53</v>
@@ -22391,7 +22394,7 @@
         <v>45</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>45</v>
@@ -22399,7 +22402,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22425,10 +22428,10 @@
         <v>134</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -22458,10 +22461,10 @@
         <v>281</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>45</v>
@@ -22479,7 +22482,7 @@
         <v>45</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>53</v>
@@ -22497,7 +22500,7 @@
         <v>45</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>70</v>
